--- a/data/trans_orig/P14C31-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C31-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3010A0B-8519-412E-9CE5-AC5AF8184763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18D04104-8204-4880-BBFA-1713C9F56C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EED4ED5E-BCB6-4DA3-960B-99B157F87CAB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4A167A65-DABD-44ED-B61A-45A376F0910E}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="105">
   <si>
     <t>Población según el tiempo de diagnóstico del enfermedad de riñón en 2015 (Tasa respuesta: 1,43%)</t>
   </si>
@@ -83,250 +83,247 @@
     <t>75,62%</t>
   </si>
   <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
   </si>
   <si>
     <t>75,0%</t>
   </si>
   <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>De 1 a 4 años</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>Ultimos 12 meses</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
     <t>60,09%</t>
   </si>
   <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>De 1 a 4 años</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>Ultimos 12 meses</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
+    <t>78,29%</t>
   </si>
   <si>
     <t>35,29%</t>
   </si>
   <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
   </si>
   <si>
     <t>13,4%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
   </si>
   <si>
     <t>22,88%</t>
   </si>
   <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
   </si>
   <si>
     <t>6,67%</t>
@@ -335,22 +332,22 @@
     <t>2,02%</t>
   </si>
   <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -765,7 +762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E18F1D0-F026-40A7-94E9-57E8E9A42AD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9742C8F2-3B38-4CD5-A549-C3613387D40B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1307,7 +1304,7 @@
         <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1316,10 +1313,10 @@
         <v>2149</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>38</v>
@@ -1331,13 +1328,13 @@
         <v>8229</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1352,13 +1349,13 @@
         <v>1913</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1370,10 +1367,10 @@
         <v>22</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1382,13 +1379,13 @@
         <v>1913</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1406,10 +1403,10 @@
         <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1421,10 +1418,10 @@
         <v>22</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1436,10 +1433,10 @@
         <v>22</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1507,13 +1504,13 @@
         <v>25232</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -1522,13 +1519,13 @@
         <v>44735</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -1537,13 +1534,13 @@
         <v>69968</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1558,13 +1555,13 @@
         <v>15339</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -1573,13 +1570,13 @@
         <v>7613</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -1588,13 +1585,13 @@
         <v>22952</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1609,13 +1606,13 @@
         <v>2899</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -1627,10 +1624,10 @@
         <v>57</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -1639,13 +1636,13 @@
         <v>7376</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1701,7 +1698,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C31-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C31-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18D04104-8204-4880-BBFA-1713C9F56C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8ED22D78-2B5D-49ED-92D9-BAC636F68597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4A167A65-DABD-44ED-B61A-45A376F0910E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AB48037C-9A6E-4B81-AC2D-73A162E40DA1}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="105">
   <si>
-    <t>Población según el tiempo de diagnóstico del enfermedad de riñón en 2015 (Tasa respuesta: 1,43%)</t>
+    <t>Población según el tiempo de diagnóstico del enfermedad de riñón en 2016 (Tasa respuesta: 1,43%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>72,76%</t>
   </si>
   <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
   </si>
   <si>
     <t>75,62%</t>
   </si>
   <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
   </si>
   <si>
     <t>75,0%</t>
   </si>
   <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>47,5%</t>
+    <t>55,25%</t>
   </si>
   <si>
     <t>18,01%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
   </si>
   <si>
     <t>18,08%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,22 +134,22 @@
     <t>8,92%</t>
   </si>
   <si>
-    <t>44,88%</t>
+    <t>37,1%</t>
   </si>
   <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>22,66%</t>
+    <t>19,83%</t>
   </si>
   <si>
     <t>6,92%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,97 +161,100 @@
     <t>46,78%</t>
   </si>
   <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
   </si>
   <si>
     <t>82,25%</t>
   </si>
   <si>
-    <t>58,22%</t>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
     <t>43,07%</t>
   </si>
   <si>
     <t>81,14%</t>
   </si>
   <si>
-    <t>47,87%</t>
+    <t>47,41%</t>
   </si>
   <si>
     <t>23,93%</t>
   </si>
   <si>
-    <t>66,98%</t>
+    <t>68,76%</t>
   </si>
   <si>
     <t>0%</t>
@@ -263,7 +266,7 @@
     <t>18,86%</t>
   </si>
   <si>
-    <t>52,13%</t>
+    <t>52,59%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -275,79 +278,76 @@
     <t>58,05%</t>
   </si>
   <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
   </si>
   <si>
     <t>69,76%</t>
   </si>
   <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
   </si>
   <si>
     <t>35,29%</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
   </si>
   <si>
     <t>13,4%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
   </si>
   <si>
     <t>22,88%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -762,7 +762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9742C8F2-3B38-4CD5-A549-C3613387D40B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9B5E93-0488-4257-9BDC-079814B0904F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1304,7 +1304,7 @@
         <v>66</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1313,10 +1313,10 @@
         <v>2149</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>38</v>
@@ -1328,13 +1328,13 @@
         <v>8229</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1349,13 +1349,13 @@
         <v>1913</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         <v>22</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1379,13 +1379,13 @@
         <v>1913</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1403,10 +1403,10 @@
         <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>22</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>22</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,13 +1504,13 @@
         <v>25232</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -1519,13 +1519,13 @@
         <v>44735</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>65</v>
@@ -1534,13 +1534,13 @@
         <v>69968</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1555,13 +1555,13 @@
         <v>15339</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -1570,13 +1570,13 @@
         <v>7613</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -1585,13 +1585,13 @@
         <v>22952</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1606,13 +1606,13 @@
         <v>2899</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -1624,7 +1624,7 @@
         <v>57</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>100</v>
